--- a/sources/case/ProjectRequest.xlsx
+++ b/sources/case/ProjectRequest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>CaseID</t>
   </si>
@@ -128,18 +128,32 @@
   </si>
   <si>
     <t>/automation/v1/formrecords?form=project_approval</t>
+  </si>
+  <si>
+    <t>!!Int100</t>
+  </si>
+  <si>
+    <t>!!Int100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -168,13 +182,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,9 +466,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -471,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -492,6 +509,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -504,12 +522,12 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -543,7 +561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -560,7 +578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -577,7 +595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -594,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -611,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -629,6 +647,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -638,16 +657,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -683,8 +703,8 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1">
-        <v>100</v>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -693,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -706,8 +726,8 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
-        <v>100</v>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -716,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -729,8 +749,8 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -739,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -752,8 +772,8 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>100</v>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -762,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -775,8 +795,8 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1">
-        <v>100</v>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -785,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -798,8 +818,8 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -809,6 +829,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/ProjectRequest.xlsx
+++ b/sources/case/ProjectRequest.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,8 +662,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="1" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>

--- a/sources/case/ProjectRequest.xlsx
+++ b/sources/case/ProjectRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>CaseID</t>
   </si>
@@ -128,20 +128,13 @@
   </si>
   <si>
     <t>/automation/v1/formrecords?form=project_approval</t>
-  </si>
-  <si>
-    <t>!!Int100</t>
-  </si>
-  <si>
-    <t>!!Int100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -155,6 +148,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,54 +464,64 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -518,131 +529,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -656,174 +671,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
